--- a/Mining/2021/page1.xlsx
+++ b/Mining/2021/page1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Things\Practice\Mining\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CCFDE4-B4BB-4B22-A669-6CC9DFEF70E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA6D0AD-FF3B-4792-A4A5-60BCA5CDE64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="258">
   <si>
     <t>1</t>
   </si>
@@ -1135,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="T84" sqref="T84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5820,7 +5820,7 @@
       <c r="I84" t="s">
         <v>0</v>
       </c>
-      <c r="J84" t="s">
+      <c r="J84">
         <v>0</v>
       </c>
       <c r="K84" t="s">
@@ -5833,10 +5833,10 @@
         <v>5</v>
       </c>
       <c r="N84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P84">
         <v>6</v>
@@ -5845,7 +5845,7 @@
         <v>251</v>
       </c>
       <c r="R84">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.3">
